--- a/data/county_gdp.xlsx
+++ b/data/county_gdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Desktop\497final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE0872B-1D07-469F-9261-8B81A454A7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBABE98-2BEF-44FE-A7FB-73A2A315D90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,6 +461,61 @@
         <v>573.47</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9">
+        <v>284.5</v>
+      </c>
+      <c r="C9">
+        <v>614.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>303.04000000000002</v>
+      </c>
+      <c r="C10">
+        <v>653.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>330.31</v>
+      </c>
+      <c r="C11">
+        <v>717.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>369.31</v>
+      </c>
+      <c r="C12">
+        <v>802.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13">
+        <v>404.32</v>
+      </c>
+      <c r="C13">
+        <v>893.51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
